--- a/data/trans_dic/P37A$vacunapreferencia-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P37A$vacunapreferencia-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03069710650794219</v>
+        <v>0.03118938178020731</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0159489023491618</v>
+        <v>0.01416555460921206</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.006886775326169319</v>
+        <v>0.009143383316189427</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07332454972905665</v>
+        <v>0.07300898190309354</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01359454224866144</v>
+        <v>0.01298952704614144</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.006828899624303405</v>
+        <v>0.006562286671727586</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.009348944263055471</v>
+        <v>0.01011006693439761</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.089644969946053</v>
+        <v>0.08803385215077765</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02853756284094633</v>
+        <v>0.02749901120173083</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01403322731266355</v>
+        <v>0.0148923681469227</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01083666262883168</v>
+        <v>0.01141943255219451</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.08688677724163683</v>
+        <v>0.08601756276275423</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07051256431395091</v>
+        <v>0.07343563353136</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04531002687275214</v>
+        <v>0.04594829102517307</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03145036948103131</v>
+        <v>0.03552094810036505</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1284484689199037</v>
+        <v>0.1276162989706248</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05410709399436451</v>
+        <v>0.05226976555848979</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04465408909570585</v>
+        <v>0.04598428334509153</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04234172500839332</v>
+        <v>0.04619162308551471</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1375111165990283</v>
+        <v>0.1360051921860752</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05750470689381292</v>
+        <v>0.05821997360738765</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0380666002683286</v>
+        <v>0.03944874219311616</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03023089282230625</v>
+        <v>0.03253544728615815</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1213608279108756</v>
+        <v>0.1223223574158344</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01056118589276723</v>
+        <v>0.01044909507833736</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02837970886182252</v>
+        <v>0.02850604463724287</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002818389492873325</v>
+        <v>0.002847944605622158</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07894846538537552</v>
+        <v>0.07752498811879421</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01052118236671211</v>
+        <v>0.008451425080066971</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.00584138237698894</v>
+        <v>0.005831806742847839</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.005227809918974645</v>
+        <v>0.005439921127046015</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0602901017920022</v>
+        <v>0.06078935042995307</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01354010042739353</v>
+        <v>0.01335913039050022</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0226361227137809</v>
+        <v>0.02111156950185018</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.006304480004192052</v>
+        <v>0.005815133916323243</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07532209814903071</v>
+        <v>0.07466493815806849</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04851041818108821</v>
+        <v>0.0473441206649208</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07748602710825386</v>
+        <v>0.07523655683120659</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02900598952777032</v>
+        <v>0.0342052084326821</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1347811211800825</v>
+        <v>0.134928685265756</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04515906906517213</v>
+        <v>0.04419674598184566</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03565325963041219</v>
+        <v>0.03803229961422804</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02888543835203913</v>
+        <v>0.03321573937775911</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1085339306457726</v>
+        <v>0.1068231736567652</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03870699637235706</v>
+        <v>0.03913741896533716</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05142743583907837</v>
+        <v>0.05004990511962273</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02340756978126396</v>
+        <v>0.0241261121466111</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1109822812164851</v>
+        <v>0.1148203828501656</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.0164653402891749</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07883506059463433</v>
+        <v>0.07883506059463431</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.02742397865662897</v>
@@ -957,7 +957,7 @@
         <v>0.02428145251042379</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.06046221427018256</v>
+        <v>0.06046221427018254</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.02800249557471252</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01610840461194696</v>
+        <v>0.01536423764801081</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02000186363187075</v>
+        <v>0.01883874225349464</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.008332366908763555</v>
+        <v>0.008544617215639354</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05470993212793668</v>
+        <v>0.05969000049492992</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01014868433437948</v>
+        <v>0.01000952484960024</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.00755653928782501</v>
+        <v>0.007616996034085742</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.00610622861751248</v>
+        <v>0.006189986282064116</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03819847357594261</v>
+        <v>0.03688501832693523</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01803256771693013</v>
+        <v>0.01776234327461908</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01784128094381943</v>
+        <v>0.01765353691444857</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0103281405429181</v>
+        <v>0.01015626690341298</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05781777151984465</v>
+        <v>0.05613320670425352</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04231873962986101</v>
+        <v>0.04346963604436534</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04693051309457167</v>
+        <v>0.04679140150449654</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02983978895767564</v>
+        <v>0.02991011369990659</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1047281466497316</v>
+        <v>0.1063775035930282</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05728609301682018</v>
+        <v>0.06342164764765471</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04365800835706372</v>
+        <v>0.04559897577468045</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0612168666477089</v>
+        <v>0.05918637837353654</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.09810334555065593</v>
+        <v>0.09678525304835656</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04227170677144425</v>
+        <v>0.04234747298638023</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03955797697482153</v>
+        <v>0.03943864126527975</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03005732792734911</v>
+        <v>0.02996331986634435</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09448109137814903</v>
+        <v>0.09384528780730586</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.01508630900326541</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08413610807376556</v>
+        <v>0.08413610807376559</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01599465307874828</v>
+        <v>0.01648692937679</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02456312505460313</v>
+        <v>0.0237814084521331</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01154285188272102</v>
+        <v>0.01115139504166031</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.072167315308676</v>
+        <v>0.07335316810082662</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01610271527550293</v>
+        <v>0.01733852662022578</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.009398791724231333</v>
+        <v>0.009161743613206217</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.004852408285575625</v>
+        <v>0.004675087691534674</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06464524846185365</v>
+        <v>0.06526707197821924</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01903946852411676</v>
+        <v>0.01902238745252256</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02031423808386418</v>
+        <v>0.02035440724648481</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01015129714807144</v>
+        <v>0.01011301583545075</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07297083453229458</v>
+        <v>0.07186901265095193</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03436613818491257</v>
+        <v>0.0349255187678431</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04598699036936586</v>
+        <v>0.04670033950653363</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02757666933523956</v>
+        <v>0.02704453960689597</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1058105931154919</v>
+        <v>0.1068251803783972</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04307569296983586</v>
+        <v>0.04390425119007443</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02846501767352425</v>
+        <v>0.02851721118343374</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01921878013124607</v>
+        <v>0.0197016521966518</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09614435583082082</v>
+        <v>0.09716143040821107</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03443842166277872</v>
+        <v>0.03421885282606723</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03551851547087343</v>
+        <v>0.03614874745566038</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02179782425294333</v>
+        <v>0.02168860529414035</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09623247817502936</v>
+        <v>0.09701177905263103</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.01831302084145344</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.04784120387331283</v>
+        <v>0.04784120387331281</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.01660237658203307</v>
@@ -1229,7 +1229,7 @@
         <v>0.01217385457607949</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.06313108075225604</v>
+        <v>0.06313108075225603</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.01902437370533005</v>
@@ -1241,7 +1241,7 @@
         <v>0.01497794344974593</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.0569228959504976</v>
+        <v>0.05692289595049759</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.008822870789828645</v>
+        <v>0.009395441593849852</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.007519158935436564</v>
+        <v>0.007874727084709683</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.009188760953340655</v>
+        <v>0.009024849475526205</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03182737799679438</v>
+        <v>0.03144481558167978</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.007670535110460644</v>
+        <v>0.007046034143915371</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01976391428495334</v>
+        <v>0.0202134317078589</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.005268583572387696</v>
+        <v>0.005649135374091071</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05135306958418842</v>
+        <v>0.05050497599729641</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0106767391001039</v>
+        <v>0.01155102302475526</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01705252662828521</v>
+        <v>0.01742496217499542</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.009069156684339701</v>
+        <v>0.008568774360955331</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0459514962626508</v>
+        <v>0.04769331538689547</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04742136639057273</v>
+        <v>0.04641582345426715</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03049853582422392</v>
+        <v>0.02991044000153626</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03291677053175566</v>
+        <v>0.03498113357645369</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06780976498112541</v>
+        <v>0.07012605593782616</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03198614510030195</v>
+        <v>0.03134312288517514</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04581550409753872</v>
+        <v>0.04641026238987579</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02274595409174342</v>
+        <v>0.0242717370881246</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.07883134029178844</v>
+        <v>0.07664024281625105</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03056485799735306</v>
+        <v>0.03078926447484523</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03566090705035749</v>
+        <v>0.03571579392371804</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02393209241720219</v>
+        <v>0.02337137925415561</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06824218225947043</v>
+        <v>0.06866356439933397</v>
       </c>
     </row>
     <row r="19">
@@ -1388,10 +1388,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.006666688739738419</v>
+        <v>0.006643251660944161</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.00744799332426736</v>
+        <v>0.007440296642269106</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
@@ -1400,28 +1400,28 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01964449660974098</v>
+        <v>0.01894279188853933</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.007404320467934541</v>
+        <v>0.007328984642117472</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01837291449643262</v>
+        <v>0.01690508614192307</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.06078461595527087</v>
+        <v>0.05925460473390608</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01926217499100321</v>
+        <v>0.01861665434372731</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.008959469247651302</v>
+        <v>0.008912239329953817</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.01504073139717231</v>
+        <v>0.01538810947703556</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.04940008822296322</v>
+        <v>0.04833079027340247</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04213752749588066</v>
+        <v>0.03749073212219142</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04399855608148629</v>
+        <v>0.0463525118635613</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02352776811239249</v>
+        <v>0.02123795944357801</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.02364380729237507</v>
+        <v>0.0221683059865464</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03881682811697997</v>
+        <v>0.03764486589333058</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.02228828248425265</v>
+        <v>0.02139800558158863</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.0411137029468208</v>
+        <v>0.0397455430018409</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.09465346029908664</v>
+        <v>0.09275644689913484</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03531184615312034</v>
+        <v>0.03527483285673799</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.0222447782886263</v>
+        <v>0.0231885358693692</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.03208928534426612</v>
+        <v>0.03271590857257831</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.07472344142894592</v>
+        <v>0.0738574255028798</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02229595253068917</v>
+        <v>0.02213754169323276</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02459644381234547</v>
+        <v>0.02467223311176529</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01237290157312526</v>
+        <v>0.01279391376078346</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0695056931060941</v>
+        <v>0.06862425586844115</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02083033676585832</v>
+        <v>0.02039946898840597</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01477930738738978</v>
+        <v>0.01498881919135657</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01384177969247126</v>
+        <v>0.01339443938412163</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.07140484053591253</v>
+        <v>0.07168281516368791</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02266110958494775</v>
+        <v>0.02268332974282312</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02135589301335477</v>
+        <v>0.02137255501840826</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.0139483176416643</v>
+        <v>0.0142837671338153</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.07239067740180362</v>
+        <v>0.07197576830445229</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03391805899906899</v>
+        <v>0.03387539839647509</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03696128188985959</v>
+        <v>0.03692654301646429</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02102433100103785</v>
+        <v>0.02140856937524007</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.08715151171607818</v>
+        <v>0.08757442769261684</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03152376824732409</v>
+        <v>0.03123592400334734</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.02464996479221653</v>
+        <v>0.02386353791316516</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02301800306465847</v>
+        <v>0.02282014559458512</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.08689125991482298</v>
+        <v>0.08618843162821969</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03092537181068836</v>
+        <v>0.0310020196767597</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02872750992732369</v>
+        <v>0.02902015699811299</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.02020607170939547</v>
+        <v>0.02045628890660787</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.08395839502975044</v>
+        <v>0.08385038430429456</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>14544</v>
+        <v>14777</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6973</v>
+        <v>6193</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2955</v>
+        <v>3923</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>40374</v>
+        <v>40200</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4169</v>
+        <v>3984</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2147</v>
+        <v>2064</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3245</v>
+        <v>3509</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>43784</v>
+        <v>42997</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>22272</v>
+        <v>21462</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>10548</v>
+        <v>11194</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>8411</v>
+        <v>8863</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>90278</v>
+        <v>89375</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>33407</v>
+        <v>34792</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>19810</v>
+        <v>20089</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13495</v>
+        <v>15242</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>70726</v>
+        <v>70268</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>16594</v>
+        <v>16030</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>14042</v>
+        <v>14460</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>14695</v>
+        <v>16031</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>67162</v>
+        <v>66426</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>44880</v>
+        <v>45438</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>28613</v>
+        <v>29652</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>23464</v>
+        <v>25252</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>126097</v>
+        <v>127096</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3875</v>
+        <v>3834</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>11885</v>
+        <v>11938</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1063</v>
+        <v>1074</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>38149</v>
+        <v>37461</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3912</v>
+        <v>3143</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1946</v>
+        <v>2025</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>25511</v>
+        <v>25723</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>10003</v>
+        <v>9870</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>17131</v>
+        <v>15977</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>4725</v>
+        <v>4358</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>68269</v>
+        <v>67673</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>17800</v>
+        <v>17372</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>32451</v>
+        <v>31509</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>10942</v>
+        <v>12903</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>65128</v>
+        <v>65199</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>16793</v>
+        <v>16435</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>12051</v>
+        <v>12855</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>10753</v>
+        <v>12365</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>45925</v>
+        <v>45201</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>28597</v>
+        <v>28915</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>38921</v>
+        <v>37878</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>17544</v>
+        <v>18083</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>100589</v>
+        <v>104068</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8737</v>
+        <v>8333</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12589</v>
+        <v>11857</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4349</v>
+        <v>4460</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>25802</v>
+        <v>28151</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1703</v>
+        <v>1679</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1966</v>
+        <v>1981</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1014</v>
+        <v>1028</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7162</v>
+        <v>6916</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>12806</v>
+        <v>12614</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>15871</v>
+        <v>15704</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>7106</v>
+        <v>6988</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>38108</v>
+        <v>36998</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>22953</v>
+        <v>23577</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>29539</v>
+        <v>29451</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15574</v>
+        <v>15611</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>49391</v>
+        <v>50169</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9612</v>
+        <v>10641</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>11357</v>
+        <v>11862</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>10170</v>
+        <v>9832</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>18394</v>
+        <v>18147</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>30020</v>
+        <v>30074</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>35189</v>
+        <v>35082</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>20681</v>
+        <v>20616</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>62273</v>
+        <v>61854</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>19807</v>
+        <v>20416</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>28469</v>
+        <v>27563</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>13270</v>
+        <v>12820</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>81682</v>
+        <v>83024</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>11502</v>
+        <v>12385</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7206</v>
+        <v>7024</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4007</v>
+        <v>3861</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>55673</v>
+        <v>56209</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>37177</v>
+        <v>37143</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>39118</v>
+        <v>39196</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>20054</v>
+        <v>19978</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>145435</v>
+        <v>143239</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>42557</v>
+        <v>43249</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>53299</v>
+        <v>54126</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>31703</v>
+        <v>31091</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>119761</v>
+        <v>120909</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>30768</v>
+        <v>31360</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>21823</v>
+        <v>21863</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>15872</v>
+        <v>16271</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>82801</v>
+        <v>83676</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>67245</v>
+        <v>66816</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>68397</v>
+        <v>69610</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>43062</v>
+        <v>42846</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>191797</v>
+        <v>193350</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3093</v>
+        <v>3294</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3839</v>
+        <v>4021</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5704</v>
+        <v>5602</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>18077</v>
+        <v>17860</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4363</v>
+        <v>4007</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>15051</v>
+        <v>15393</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>3890</v>
+        <v>4170</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>42667</v>
+        <v>41962</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>9815</v>
+        <v>10619</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>21693</v>
+        <v>22167</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>12325</v>
+        <v>11645</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>64278</v>
+        <v>66714</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>16624</v>
+        <v>16271</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>15572</v>
+        <v>15272</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>20432</v>
+        <v>21713</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>38514</v>
+        <v>39829</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>18192</v>
+        <v>17826</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>34890</v>
+        <v>35342</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>16792</v>
+        <v>17918</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>65497</v>
+        <v>63677</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>28098</v>
+        <v>28305</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>45365</v>
+        <v>45435</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>32523</v>
+        <v>31761</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>95458</v>
+        <v>96048</v>
       </c>
     </row>
     <row r="24">
@@ -2774,10 +2774,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1988</v>
+        <v>1981</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
@@ -2786,28 +2786,28 @@
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>24531</v>
+        <v>23655</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>8214</v>
+        <v>8130</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>19880</v>
+        <v>18292</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>51319</v>
+        <v>50028</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>29798</v>
+        <v>28799</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>12330</v>
+        <v>12265</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>20593</v>
+        <v>21069</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>53427</v>
+        <v>52270</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>12565</v>
+        <v>11180</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>11742</v>
+        <v>12371</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>6756</v>
+        <v>6098</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>5609</v>
+        <v>5259</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>48473</v>
+        <v>47009</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>24726</v>
+        <v>23738</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>44486</v>
+        <v>43006</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>79914</v>
+        <v>78313</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>54626</v>
+        <v>54569</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>30614</v>
+        <v>31913</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>43936</v>
+        <v>44794</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>80814</v>
+        <v>79877</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>72912</v>
+        <v>72394</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>84167</v>
+        <v>84426</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>41891</v>
+        <v>43317</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>239272</v>
+        <v>236237</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>70367</v>
+        <v>68912</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>52468</v>
+        <v>53212</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>48884</v>
+        <v>47304</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>259585</v>
+        <v>260595</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>150658</v>
+        <v>150806</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>148894</v>
+        <v>149010</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>96485</v>
+        <v>98805</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>512372</v>
+        <v>509435</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>110918</v>
+        <v>110779</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>126478</v>
+        <v>126359</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>71183</v>
+        <v>72483</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>300017</v>
+        <v>301473</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>106491</v>
+        <v>105519</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>87510</v>
+        <v>84719</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>81290</v>
+        <v>80592</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>315884</v>
+        <v>313329</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>205602</v>
+        <v>206111</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>200289</v>
+        <v>202330</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>139772</v>
+        <v>141503</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>594247</v>
+        <v>593482</v>
       </c>
     </row>
     <row r="32">
